--- a/finding bugs.xlsx
+++ b/finding bugs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepFWI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanliu/Documents/GitHub/DeepFWI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AC6C5A-49D0-47D6-8B3E-8F0897B1C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2EAB7-F14D-3043-9019-78D0394295E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Project</t>
   </si>
@@ -189,21 +189,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bug47950 -- make stream/directory name lookup in OLE2 case insensitive · apache/poi@9911738</t>
-  </si>
-  <si>
     <t>org.apache.poi.hssf.record.aggregates.CFRecordsAggregate</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avoid some NullPointerException and ClassCastExceptions found when fu… · apache/poi@1ff1e84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,19 +529,19 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.78515625" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -590,7 +584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -613,7 +607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -621,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -632,11 +626,9 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -655,11 +647,9 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -682,7 +672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -705,7 +695,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -725,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -745,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -765,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -785,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -805,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -825,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -845,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -865,7 +855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -885,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -905,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -925,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -945,7 +935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -965,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -985,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1005,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1025,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1045,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1065,7 +1055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1091,7 +1081,6 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{A38356DC-34B9-4F40-8CAF-A33D5F59205E}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{A8F8EF39-84EB-41E4-833B-332B4F6D2E38}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{BFBBE9B9-9BB1-4EAE-855C-9D65C71986BC}"/>
-    <hyperlink ref="G4" r:id="rId4" location="diff-d15bdc42278873606858095ef4842946937519ab6aafe600e7d5ba9abde67628" display="https://github.com/apache/poi/commit/1ff1e84e4afcd4abdf454c584a909423c2a14b03 - diff-d15bdc42278873606858095ef4842946937519ab6aafe600e7d5ba9abde67628" xr:uid="{99189C7E-C38D-4B98-90E5-85093A3F9D0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
